--- a/TestData/TestDataExcel.xlsx
+++ b/TestData/TestDataExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dibya\eclipse-workspace\Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dibya\git\MukeshOtwaniFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B71E4-9047-4B28-8F32-26DF2C8C55C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5810BF-5F67-4E33-9EFA-70F78C624A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E54EB61E-D8B5-4BE1-B154-4A32B637C108}"/>
   </bookViews>
